--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1164.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1164.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.04019730608422</v>
+        <v>1.166208744049072</v>
       </c>
       <c r="B1">
-        <v>1.270162130939116</v>
+        <v>2.427464485168457</v>
       </c>
       <c r="C1">
-        <v>1.749626357685371</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.372320413589478</v>
       </c>
       <c r="E1">
-        <v>2.102499775496394</v>
+        <v>1.234760999679565</v>
       </c>
     </row>
   </sheetData>
